--- a/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,29</t>
+          <t>0,65; 6,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,71</t>
+          <t>4,58; 12,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,72</t>
+          <t>2,98; 7,64</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,03</t>
+          <t>3,24; 9,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 9,61</t>
+          <t>4,78; 9,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,53</t>
+          <t>4,65; 8,52</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,9</t>
+          <t>6,2; 11,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,34</t>
+          <t>6,32; 10,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,88</t>
+          <t>6,82; 9,85</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,45</t>
+          <t>7,08; 12,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 13,98</t>
+          <t>10,17; 14,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 12,72</t>
+          <t>9,29; 12,53</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,66</t>
+          <t>13,13; 18,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 21,72</t>
+          <t>16,69; 21,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,52; 19,24</t>
+          <t>15,17; 19,14</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,53</t>
+          <t>14,02; 18,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 27,57</t>
+          <t>16,13; 27,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,68; 22,88</t>
+          <t>16,41; 22,7</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,43; 11,64</t>
+          <t>9,45; 11,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,02; 15,67</t>
+          <t>13,05; 15,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,84; 13,46</t>
+          <t>11,77; 13,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,33</t>
+          <t>0,69; 6,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 12,8</t>
+          <t>4,39; 12,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,64</t>
+          <t>2,97; 7,72</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,04</t>
+          <t>3,4; 9,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 9,84</t>
+          <t>4,69; 9,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,52</t>
+          <t>4,68; 8,53</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,07</t>
+          <t>6,06; 10,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,13</t>
+          <t>6,37; 10,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 9,85</t>
+          <t>6,79; 9,88</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,4</t>
+          <t>7,35; 12,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,12</t>
+          <t>10,18; 13,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 12,53</t>
+          <t>9,26; 12,72</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,13; 18,44</t>
+          <t>12,94; 18,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 21,73</t>
+          <t>16,57; 21,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,17; 19,14</t>
+          <t>15,52; 19,24</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 18,56</t>
+          <t>13,93; 18,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,13; 27,3</t>
+          <t>15,92; 27,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,41; 22,7</t>
+          <t>16,68; 22,88</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,45; 11,76</t>
+          <t>9,43; 11,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,05; 15,61</t>
+          <t>13,02; 15,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 13,49</t>
+          <t>11,84; 13,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,29</t>
+          <t>0,49; 5,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,71</t>
+          <t>4,28; 12,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,72</t>
+          <t>2,67; 6,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,03</t>
+          <t>3,4; 9,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 9,61</t>
+          <t>3,29; 8,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,53</t>
+          <t>4,23; 8,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,9</t>
+          <t>5,87; 10,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,34</t>
+          <t>6,17; 10,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,88</t>
+          <t>6,57; 9,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>9,15%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,45</t>
+          <t>3,24; 11,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 13,98</t>
+          <t>9,25; 13,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 12,72</t>
+          <t>5,29; 11,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,66</t>
+          <t>12,49; 18,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,57; 21,72</t>
+          <t>16,34; 21,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,52; 19,24</t>
+          <t>15,14; 18,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>12,43%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,53</t>
+          <t>9,95; 15,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 27,57</t>
+          <t>4,58; 19,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,68; 22,88</t>
+          <t>6,86; 16,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>28,29%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,43; 11,64</t>
+          <t>16,24; 23,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,02; 15,67</t>
+          <t>30,77; 37,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,84; 13,46</t>
+          <t>25,42; 30,7</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 10,65</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10,66; 14,86</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 12,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,5</t>
+          <t>0,47; 5,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 12,51</t>
+          <t>4,69; 12,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,92</t>
+          <t>2,71; 6,96</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 9,19</t>
+          <t>3,26; 9,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,35</t>
+          <t>3,47; 8,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,33</t>
+          <t>4,06; 7,77</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,47</t>
+          <t>5,84; 10,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,06</t>
+          <t>6,15; 9,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 9,57</t>
+          <t>6,61; 9,56</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 11,18</t>
+          <t>3,24; 11,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,36</t>
+          <t>9,22; 13,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 11,49</t>
+          <t>5,55; 11,31</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 18,06</t>
+          <t>12,46; 17,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 21,43</t>
+          <t>16,46; 21,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,14; 18,74</t>
+          <t>14,87; 18,63</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,71</t>
+          <t>10,11; 15,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 19,43</t>
+          <t>4,66; 19,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 16,43</t>
+          <t>6,64; 16,47</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,24; 23,66</t>
+          <t>16,24; 23,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,77; 37,32</t>
+          <t>30,73; 37,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,42; 30,7</t>
+          <t>25,77; 30,73</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,27; 10,65</t>
+          <t>7,44; 10,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,66; 14,86</t>
+          <t>11,05; 14,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,94; 12,62</t>
+          <t>9,85; 12,48</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con bienestar emocional por debajo del percentil 15 (Bericat)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7726</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23625</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31351</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1857; 22469</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14681; 39670</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>19215; 49336</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24340</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30355</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>54694</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13732; 38943</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17610; 43248</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>37745; 72245</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42576</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42122</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>84697</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31062; 56001</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33144; 52458</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>70751; 102309</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64979</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>79530</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>144509</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28516; 97501</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>64559; 93770</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>87604; 178712</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>83673</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>100306</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>183978</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>68929; 99380</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>88140; 113643</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>161909; 202783</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46254</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>73323</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>119577</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36616; 56611</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>27928; 116356</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>63868; 158408</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>54081</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>138222</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>192303</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44225; 63918</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>125227; 151135</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>175215; 208921</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>323628</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>487482</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>811110</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>254253; 365385</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>397967; 539590</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>691136; 875819</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>